--- a/cities.xlsx
+++ b/cities.xlsx
@@ -5,7 +5,9 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$D$13</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -25,70 +27,70 @@
     <t>Area</t>
   </si>
   <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Pyeongchang</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Marakesh</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Los Cabos</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Archipelago Sea</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Walla Walla Valley</t>
+  </si>
+  <si>
+    <t>Salina Island</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>Solta</t>
   </si>
   <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Los Cabos</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Walla Walla Valley</t>
-  </si>
-  <si>
-    <t>Marakesh</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Archipelago Sea</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>Iguazu Falls</t>
-  </si>
-  <si>
-    <t>Salina Island</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Pyeongchang</t>
-  </si>
-  <si>
-    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -204,10 +206,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>1700.0</v>
+        <v>2891000.0</v>
       </c>
       <c r="D2" s="2">
-        <v>59.0</v>
+        <v>4758.0</v>
       </c>
     </row>
     <row r="3">
@@ -218,10 +220,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>84554.0</v>
+        <v>2800000.0</v>
       </c>
       <c r="D3" s="2">
-        <v>68.0</v>
+        <v>2731571.0</v>
       </c>
     </row>
     <row r="4">
@@ -232,10 +234,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.3591863E7</v>
+        <v>2581000.0</v>
       </c>
       <c r="D4" s="2">
-        <v>4758.0</v>
+        <v>3194.0</v>
       </c>
     </row>
     <row r="5">
@@ -246,10 +248,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>287651.0</v>
+        <v>928850.0</v>
       </c>
       <c r="D5" s="2">
-        <v>3750.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="6">
@@ -257,49 +259,49 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>32237.0</v>
+        <v>559277.0</v>
       </c>
       <c r="D6" s="2">
-        <v>33.0</v>
+        <v>491.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>928850.0</v>
+        <v>287651.0</v>
       </c>
       <c r="D7" s="2">
-        <v>200.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>559277.0</v>
+        <v>84554.0</v>
       </c>
       <c r="D8" s="2">
-        <v>491.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>60000.0</v>
@@ -310,24 +312,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>672.0</v>
+        <v>32237.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>33.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>4000.0</v>
@@ -338,30 +340,30 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>630.0</v>
+        <v>1700.0</v>
       </c>
       <c r="D12" s="2">
-        <v>2731571.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>2581000.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3194.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>672.0</v>
       </c>
     </row>
     <row r="14">
@@ -407,6 +409,7 @@
       <c r="A31" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$D$13"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cities.xlsx
+++ b/cities.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$D$13</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>City</t>
   </si>
@@ -54,7 +52,7 @@
     <t>Albuquerque</t>
   </si>
   <si>
-    <t>New Mexico</t>
+    <t>USA</t>
   </si>
   <si>
     <t>Los Cabos</t>
@@ -64,9 +62,6 @@
   </si>
   <si>
     <t>Greenville</t>
-  </si>
-  <si>
-    <t>USA</t>
   </si>
   <si>
     <t>Archipelago Sea</t>
@@ -104,19 +99,24 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF222222"/>
-      <name val="Sans-serif"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,27 +139,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -170,21 +173,219 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4285F4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="EA4335"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="FBBC04"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="34A853"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="FF6D01"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="46BDC6"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="1155CC"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="1155CC"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="17.43"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
+    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col customWidth="1" min="2" max="2" width="15.57"/>
+    <col customWidth="1" min="3" max="3" width="15.71"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -194,222 +395,179 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>2891000.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4758.0</v>
+      <c r="C2" s="5">
+        <v>2891082.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>203.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>2800000.0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="5">
         <v>2731571.0</v>
       </c>
+      <c r="D3" s="6">
+        <v>630.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
-        <v>2581000.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3194.0</v>
+      <c r="C4" s="5">
+        <v>43666.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1464.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>928850.0</v>
       </c>
-      <c r="D5" s="2">
-        <v>200.0</v>
+      <c r="D5" s="5">
+        <v>230.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
-        <v>559277.0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="5">
+        <v>558545.0</v>
+      </c>
+      <c r="D6" s="6">
         <v>491.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>287651.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3750.0</v>
+      <c r="C7" s="5">
+        <v>287671.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3751.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>93137.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
-        <v>84554.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="5">
+        <v>60000.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2">
-        <v>60000.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8300.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>32986.0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <v>32237.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="5">
+        <v>2598.0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
-        <v>4000.0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2">
-        <v>1700.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>0.0</v>
       </c>
-      <c r="D13" s="4">
-        <v>672.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="5"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="6"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3"/>
+      <c r="D13" s="6">
+        <v>2396.0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$13"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>